--- a/Metadatos.xlsx
+++ b/Metadatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\nbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A1EE4-0B82-4F6C-93D4-E752C29F27E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894D0A1E-9E7C-44DA-981E-6A6CDC73799C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14AC32E5-6124-4D06-8AB0-E7FE0C75EAA8}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14AC32E5-6124-4D06-8AB0-E7FE0C75EAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="49">
   <si>
     <t>LIBRO</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>correo</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>edicion</t>
+  </si>
+  <si>
+    <t>nropublicacion</t>
+  </si>
+  <si>
+    <t>lugarpublicacion</t>
   </si>
 </sst>
 </file>
@@ -204,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -386,11 +401,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -404,10 +469,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15465CB2-7D59-47E4-9511-81FFAAE21C3D}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,110 +809,94 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>256</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -854,19 +908,18 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="18"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -878,19 +931,22 @@
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="18"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -898,11 +954,12 @@
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="18"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -916,41 +973,65 @@
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -978,11 +1059,12 @@
       <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1004,17 +1086,18 @@
       <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="17"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -1026,17 +1109,22 @@
       <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="18"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>512</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1044,17 +1132,24 @@
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="18"/>
+      <c r="K15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>512</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1062,221 +1157,228 @@
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="18"/>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
         <v>32</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="18"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="19">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="F27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1284,9 +1386,11 @@
         <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>256</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1294,14 +1398,15 @@
       <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="18"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1312,18 +1417,17 @@
       <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="18"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1">
-        <v>256</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1332,16 +1436,15 @@
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="18"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1352,149 +1455,166 @@
       <c r="I31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J34" s="16"/>
+      <c r="K34" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1">
         <v>32</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="18"/>
+      <c r="K38" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>64</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1502,21 +1622,20 @@
       <c r="I39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="18"/>
+      <c r="K39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1524,14 +1643,15 @@
       <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="18"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1542,16 +1662,19 @@
       <c r="I41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="18"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>256</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1560,32 +1683,116 @@
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="J42" s="18"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>256</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="19">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Metadatos.xlsx
+++ b/Metadatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\nbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894D0A1E-9E7C-44DA-981E-6A6CDC73799C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B34421A-DF6D-4AE9-97B0-871B844C48B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14AC32E5-6124-4D06-8AB0-E7FE0C75EAA8}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -470,14 +470,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15465CB2-7D59-47E4-9511-81FFAAE21C3D}">
   <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,19 +815,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -856,7 +857,7 @@
       <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -885,7 +886,7 @@
       <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -908,7 +909,7 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -931,7 +932,7 @@
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -954,7 +955,7 @@
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -973,7 +974,7 @@
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,7 +993,7 @@
       <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1011,25 +1012,25 @@
       <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>1</v>
       </c>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -1059,7 +1060,7 @@
       <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="12" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1087,7 @@
       <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1109,7 +1110,7 @@
       <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,7 +1133,7 @@
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1157,7 +1158,7 @@
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -1182,7 +1183,7 @@
       <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1193,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1203,7 +1204,7 @@
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1213,7 +1214,7 @@
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1222,7 +1223,7 @@
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1243,7 +1244,7 @@
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1262,7 +1263,7 @@
       <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1281,7 +1282,7 @@
       <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1300,25 +1301,25 @@
       <c r="I23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <v>1</v>
       </c>
       <c r="K23" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -1348,7 +1349,7 @@
       <c r="I26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="12" t="s">
         <v>17</v>
       </c>
@@ -1375,7 +1376,7 @@
       <c r="I27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,7 +1399,7 @@
       <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1417,7 +1418,7 @@
       <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1436,7 +1437,7 @@
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1455,25 +1456,25 @@
       <c r="I31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="17">
         <v>1</v>
       </c>
       <c r="K31" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1503,7 +1504,7 @@
       <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="16"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="12" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1531,7 @@
       <c r="I35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="17"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1553,7 +1554,7 @@
       <c r="I36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1576,7 +1577,7 @@
       <c r="I37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1599,7 +1600,7 @@
       <c r="I38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="3" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1623,7 @@
       <c r="I39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="18"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="3" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1644,7 @@
       <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="18"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1662,7 +1663,7 @@
       <c r="I41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="18"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1683,7 +1684,7 @@
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1702,7 +1703,7 @@
       <c r="I43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="18"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1723,7 +1724,7 @@
       <c r="I44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="18"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="3" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1745,7 @@
       <c r="I45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="18"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,14 +1764,14 @@
       <c r="I46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="5"/>
@@ -1782,7 +1783,7 @@
       <c r="I47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="18">
         <v>1</v>
       </c>
       <c r="K47" s="6"/>

--- a/Metadatos.xlsx
+++ b/Metadatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\nbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B34421A-DF6D-4AE9-97B0-871B844C48B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F4D56-7D0E-499E-B4FD-B8F064591954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14AC32E5-6124-4D06-8AB0-E7FE0C75EAA8}"/>
   </bookViews>
@@ -475,10 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15465CB2-7D59-47E4-9511-81FFAAE21C3D}">
   <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,19 +815,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1018,19 +1018,19 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -1214,7 +1214,7 @@
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1307,19 +1307,19 @@
       <c r="K23" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -1462,19 +1462,19 @@
       <c r="K31" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1610,11 +1610,9 @@
         <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>16</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>

--- a/Metadatos.xlsx
+++ b/Metadatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\nbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F4D56-7D0E-499E-B4FD-B8F064591954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D717786C-E419-4115-9E29-C5E22C1D6825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14AC32E5-6124-4D06-8AB0-E7FE0C75EAA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14AC32E5-6124-4D06-8AB0-E7FE0C75EAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="52">
   <si>
     <t>LIBRO</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>lugarpublicacion</t>
+  </si>
+  <si>
+    <t>BUSQUEDA</t>
+  </si>
+  <si>
+    <t>frase</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
   </si>
 </sst>
 </file>
@@ -793,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15465CB2-7D59-47E4-9511-81FFAAE21C3D}">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,12 +1795,187 @@
       </c>
       <c r="K47" s="6"/>
     </row>
+    <row r="50" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>256</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="1">
+        <v>256</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="17"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="17"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="18">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A50:K50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
